--- a/data/using/Research Data - Demographics - Culled.xlsx
+++ b/data/using/Research Data - Demographics - Culled.xlsx
@@ -1,49 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ross.arnold\Documents\PhD\Code\systems_thinking_game_evolved\data\using\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ross\Work\Japan\Drones\Code\systems_thinking_game_evolved\data\using\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A6DDD-38A8-4A0B-A7DB-0AEA9294F690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1800" windowWidth="22740" windowHeight="12540" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="2460" yWindow="1065" windowWidth="24360" windowHeight="13680" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet10" sheetId="12" r:id="rId8"/>
-    <sheet name="Sheet11" sheetId="13" r:id="rId9"/>
-    <sheet name="Sheet13" sheetId="15" r:id="rId10"/>
-    <sheet name="Demographics" sheetId="2" r:id="rId11"/>
-    <sheet name="LearningStyles" sheetId="14" r:id="rId12"/>
-    <sheet name="Self-Assessments" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet7" sheetId="17" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet11" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet13" sheetId="15" r:id="rId11"/>
+    <sheet name="Demographics" sheetId="2" r:id="rId12"/>
+    <sheet name="LearningStyles" sheetId="14" r:id="rId13"/>
+    <sheet name="Self-Assessments" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
-    <pivotCache cacheId="1" r:id="rId15"/>
-    <pivotCache cacheId="2" r:id="rId16"/>
-    <pivotCache cacheId="3" r:id="rId17"/>
-    <pivotCache cacheId="4" r:id="rId18"/>
-    <pivotCache cacheId="5" r:id="rId19"/>
-    <pivotCache cacheId="6" r:id="rId20"/>
-    <pivotCache cacheId="7" r:id="rId21"/>
-    <pivotCache cacheId="8" r:id="rId22"/>
-    <pivotCache cacheId="9" r:id="rId23"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="3" r:id="rId18"/>
+    <pivotCache cacheId="4" r:id="rId19"/>
+    <pivotCache cacheId="5" r:id="rId20"/>
+    <pivotCache cacheId="6" r:id="rId21"/>
+    <pivotCache cacheId="7" r:id="rId22"/>
+    <pivotCache cacheId="8" r:id="rId23"/>
+    <pivotCache cacheId="9" r:id="rId24"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="256">
   <si>
     <t>ID</t>
   </si>
@@ -912,7 +914,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1099,7 +1101,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1189,6 +1191,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1330,7 +1373,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D65A-45D9-8B58-E92FD219E964}"/>
             </c:ext>
@@ -1501,12 +1544,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1515,12 +1553,440 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Research Data - Demographics - Culled.xlsx]Sheet11!PivotTable36</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Player</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Career Experience Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:tint val="88500"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet11!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet11!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0 to 1 year</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 to 3 years</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 to 7 years</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 to 12 years</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13 to 20 years</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 21 to 30 years</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>More than 30 years</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet11!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C35-4A98-B62A-5A3DCE9AEB5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="160"/>
+        <c:axId val="449395744"/>
+        <c:axId val="449397704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="449395744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449397704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="449397704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449395744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1604,6 +2070,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1703,7 +2207,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6212-477C-A723-0DD0AC3DD870}"/>
             </c:ext>
@@ -1870,12 +2374,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1883,12 +2382,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2013,7 +2517,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-444C-AA6A-69B1116A17A9}"/>
             </c:ext>
@@ -2186,7 +2690,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2270,6 +2774,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2411,7 +2953,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A5A-4395-9D59-DE1AC6B1F44C}"/>
             </c:ext>
@@ -2578,12 +3120,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2591,12 +3128,355 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Country</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> of Residence</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$2:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Indonesia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F98C-4857-8686-9F18C5E4E533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="674870688"/>
+        <c:axId val="674874624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="674870688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674874624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="674874624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674870688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2739,7 +3619,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2798,7 +3678,7 @@
           <c:showSerName val="1"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2857,7 +3737,7 @@
           <c:showSerName val="1"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2895,7 +3775,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
               </c:ext>
@@ -2915,7 +3795,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
               </c:ext>
@@ -2963,8 +3843,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3008,8 +3891,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3096,7 +3982,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
             </c:ext>
@@ -3156,12 +4042,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3169,12 +4050,17 @@
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3266,6 +4152,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3353,7 +4277,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9542-4341-A561-790830C29FEE}"/>
             </c:ext>
@@ -3520,12 +4444,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3533,12 +4452,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3674,7 +4598,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3786,10 +4710,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:dlblFieldTable/>
               <c15:showDataLabelsRange val="0"/>
@@ -3904,10 +4825,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:dlblFieldTable/>
               <c15:showDataLabelsRange val="0"/>
@@ -3948,7 +4866,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
               </c:ext>
@@ -3968,7 +4886,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
               </c:ext>
@@ -4069,13 +4987,13 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4173,13 +5091,13 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4267,7 +5185,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE6E-4392-A0CB-1BFC13F65CB4}"/>
             </c:ext>
@@ -4327,12 +5245,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4340,12 +5253,17 @@
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4437,6 +5355,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4506,7 +5462,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE10-43E5-B70A-28C676A75569}"/>
             </c:ext>
@@ -4673,12 +5629,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4686,12 +5637,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4779,6 +5735,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4860,7 +5857,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3255-4001-976D-2D079786C9E3}"/>
             </c:ext>
@@ -5027,12 +6024,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -5040,12 +6032,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5129,6 +6126,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5210,7 +6245,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F14B-4F17-8748-A11CB9568447}"/>
             </c:ext>
@@ -5377,12 +6412,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -5390,387 +6420,10 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Research Data - Demographics - Culled.xlsx]Sheet11!PivotTable36</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Player</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Career Experience Distribution</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="dk1">
-              <a:tint val="88500"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet11!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="88500"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet11!$A$4:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0 to 1 year</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 to 3 years</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4 to 7 years</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8 to 12 years</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13 to 20 years</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> 21 to 30 years</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>More than 30 years</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet11!$B$4:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C35-4A98-B62A-5A3DCE9AEB5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="160"/>
-        <c:axId val="449395744"/>
-        <c:axId val="449397704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="449395744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="449397704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="449397704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="449395744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
       <c16:pivotOptions16>
         <c16:showExpandCollapseFieldButtons val="1"/>
       </c16:pivotOptions16>
-    </c:ext>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-      </c14:pivotOptions>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -5857,6 +6510,33 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
@@ -5885,6 +6565,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -5921,7 +6641,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -5948,7 +6668,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -5981,33 +6701,6 @@
   <cs:variation>
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -7606,7 +8299,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8111,8 +8804,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8169,7 +8862,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8220,13 +8913,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8237,19 +8923,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8287,7 +8966,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8630,8 +9309,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8835,22 +9514,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8955,8 +9635,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9088,19 +9768,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9133,7 +9814,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9652,8 +10333,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9815,6 +10496,523 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -11692,7 +12890,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7089C74-A590-40A0-B5C7-8678FAEC807D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7089C74-A590-40A0-B5C7-8678FAEC807D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11717,23 +12915,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542923</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDA4FB33-ECF0-404F-BA8D-D08535AC2B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E5F98D-4108-466F-AF20-E08627D4DF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11758,6 +12956,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA4FB33-ECF0-404F-BA8D-D08535AC2B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>90487</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -11774,7 +13013,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E13BE4AD-7C1D-4F0D-89D1-512A98185D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13BE4AD-7C1D-4F0D-89D1-512A98185D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11799,23 +13038,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28572</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>23809</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47622</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FB6D61F-6F58-416D-8C07-6D4C6AC76F8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB6D61F-6F58-416D-8C07-6D4C6AC76F8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11840,23 +13079,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECCB5CEC-CDB9-47CA-82EA-4239E895135A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BDD864-30D8-48F0-A951-F343E3E8B4DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11881,23 +13120,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A1829FE-16EF-4743-BAE5-528C472AFF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCB5CEC-CDB9-47CA-82EA-4239E895135A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11922,23 +13161,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74A6ACBF-905C-4FF2-A8D2-90D88FB5BD58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1829FE-16EF-4743-BAE5-528C472AFF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11963,23 +13202,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C476A340-774F-484C-B57C-0DBB692E5447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A6ACBF-905C-4FF2-A8D2-90D88FB5BD58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12005,22 +13244,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{491DD9A6-6849-4BF9-BBBB-21EE82FCF1FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C476A340-774F-484C-B57C-0DBB692E5447}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12045,15 +13284,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12061,7 +13300,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1FE0486-BE96-416A-B3EE-8A12BB9FA130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491DD9A6-6849-4BF9-BBBB-21EE82FCF1FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12086,23 +13325,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542923</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>33335</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45E5F98D-4108-466F-AF20-E08627D4DF6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FE0486-BE96-416A-B3EE-8A12BB9FA130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12124,7 +13363,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.545536342594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.545536342594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -12257,7 +13496,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.65485324074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="94">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.65485324074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="94" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J95" sheet="LearningStyles"/>
   </cacheSource>
@@ -12311,7 +13550,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.548378587962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.548378587962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -12444,7 +13683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.558078819442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.558078819442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -12567,7 +13806,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.572364814812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.572364814812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -12700,7 +13939,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.581180092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.581180092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -12823,7 +14062,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.588939814814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.588939814814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -12947,7 +14186,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.597976041667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.597976041667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -13073,7 +14312,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.60828252315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.60828252315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -13202,7 +14441,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.637503703707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.637503703707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT23" sheet="Demographics"/>
   </cacheSource>
@@ -23835,7 +25074,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24174,7 +25413,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable45" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable45" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24317,7 +25556,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24656,7 +25895,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24974,7 +26213,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable32" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable32" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25284,7 +26523,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable37" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable37" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25602,7 +26841,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25900,7 +27139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable26" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable26" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26206,7 +27445,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable31" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable31" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26519,7 +27758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable36" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable36" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -27135,20 +28374,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -27156,7 +28395,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -27164,7 +28403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -27172,7 +28411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -27180,7 +28419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -27188,7 +28427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -27196,7 +28435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -27204,7 +28443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -27212,7 +28451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -27220,7 +28459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -27228,7 +28467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -27236,7 +28475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -27244,7 +28483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -27252,7 +28491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -27260,7 +28499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -27268,7 +28507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -27283,88 +28522,80 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B5" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B6" s="9">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B7" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B9" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="9">
         <v>2</v>
       </c>
     </row>
@@ -27375,46 +28606,138 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A3:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AT23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2:AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.71875" customWidth="1"/>
-    <col min="2" max="2" width="24.27734375" customWidth="1"/>
-    <col min="3" max="3" width="6.27734375" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="12" width="5.1640625" customWidth="1"/>
-    <col min="13" max="13" width="4.27734375" customWidth="1"/>
-    <col min="14" max="14" width="3.83203125" customWidth="1"/>
-    <col min="15" max="16" width="4.27734375" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" customWidth="1"/>
-    <col min="18" max="24" width="4.27734375" customWidth="1"/>
-    <col min="25" max="27" width="5.71875" customWidth="1"/>
-    <col min="28" max="28" width="20.71875" style="24" customWidth="1"/>
-    <col min="29" max="29" width="16.27734375" customWidth="1"/>
-    <col min="30" max="30" width="15.83203125" customWidth="1"/>
-    <col min="31" max="32" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" customWidth="1"/>
+    <col min="15" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" style="24" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" customWidth="1"/>
+    <col min="31" max="32" width="9.85546875" customWidth="1"/>
     <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="20.71875" customWidth="1"/>
-    <col min="35" max="35" width="12.83203125" customWidth="1"/>
-    <col min="36" max="36" width="64.83203125" customWidth="1"/>
-    <col min="37" max="37" width="28.71875" style="12" customWidth="1"/>
-    <col min="38" max="38" width="16.5546875" customWidth="1"/>
-    <col min="39" max="39" width="41.1640625" customWidth="1"/>
-    <col min="40" max="40" width="30.5546875" customWidth="1"/>
-    <col min="41" max="41" width="15.27734375" customWidth="1"/>
+    <col min="34" max="34" width="20.7109375" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" customWidth="1"/>
+    <col min="36" max="36" width="64.85546875" customWidth="1"/>
+    <col min="37" max="37" width="28.7109375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="16.5703125" customWidth="1"/>
+    <col min="39" max="39" width="41.140625" customWidth="1"/>
+    <col min="40" max="40" width="30.5703125" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" customWidth="1"/>
     <col min="42" max="44" width="50" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" customWidth="1"/>
-    <col min="46" max="46" width="12.44140625" customWidth="1"/>
+    <col min="45" max="45" width="20.42578125" customWidth="1"/>
+    <col min="46" max="46" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -27552,7 +28875,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>61046</v>
       </c>
@@ -27694,7 +29017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>374328</v>
       </c>
@@ -27778,8 +29101,8 @@
       <c r="AA3" s="7">
         <v>33</v>
       </c>
-      <c r="AB3" s="23" t="s">
-        <v>145</v>
+      <c r="AB3" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>154</v>
@@ -27836,7 +29159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>144707</v>
       </c>
@@ -27920,8 +29243,8 @@
       <c r="AA4" s="7">
         <v>0</v>
       </c>
-      <c r="AB4" s="23" t="s">
-        <v>145</v>
+      <c r="AB4" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>154</v>
@@ -27978,7 +29301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>865260</v>
       </c>
@@ -28062,8 +29385,8 @@
       <c r="AA5" s="7">
         <v>33</v>
       </c>
-      <c r="AB5" s="23" t="s">
-        <v>152</v>
+      <c r="AB5" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>154</v>
@@ -28120,7 +29443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>530476</v>
       </c>
@@ -28204,8 +29527,8 @@
       <c r="AA6" s="7">
         <v>0</v>
       </c>
-      <c r="AB6" s="23" t="s">
-        <v>145</v>
+      <c r="AB6" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>154</v>
@@ -28262,7 +29585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>942575</v>
       </c>
@@ -28404,7 +29727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>753307</v>
       </c>
@@ -28546,7 +29869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>821010</v>
       </c>
@@ -28630,8 +29953,8 @@
       <c r="AA9" s="7">
         <v>33</v>
       </c>
-      <c r="AB9" s="23" t="s">
-        <v>145</v>
+      <c r="AB9" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>154</v>
@@ -28688,7 +30011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>906861</v>
       </c>
@@ -28830,7 +30153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>523118</v>
       </c>
@@ -28972,7 +30295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>227159</v>
       </c>
@@ -29064,7 +30387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>739187</v>
       </c>
@@ -29148,8 +30471,8 @@
       <c r="AA13" s="7">
         <v>100</v>
       </c>
-      <c r="AB13" s="23" t="s">
-        <v>145</v>
+      <c r="AB13" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>154</v>
@@ -29206,7 +30529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>116420</v>
       </c>
@@ -29290,8 +30613,8 @@
       <c r="AA14" s="7">
         <v>100</v>
       </c>
-      <c r="AB14" s="23" t="s">
-        <v>151</v>
+      <c r="AB14" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>154</v>
@@ -29348,7 +30671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>697106</v>
       </c>
@@ -29432,8 +30755,8 @@
       <c r="AA15" s="7">
         <v>0</v>
       </c>
-      <c r="AB15" s="23" t="s">
-        <v>150</v>
+      <c r="AB15" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>154</v>
@@ -29490,7 +30813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>930512</v>
       </c>
@@ -29574,8 +30897,8 @@
       <c r="AA16" s="7">
         <v>67</v>
       </c>
-      <c r="AB16" s="23" t="s">
-        <v>145</v>
+      <c r="AB16" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>154</v>
@@ -29632,7 +30955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>591218</v>
       </c>
@@ -29716,8 +31039,8 @@
       <c r="AA17" s="7">
         <v>33</v>
       </c>
-      <c r="AB17" s="23" t="s">
-        <v>149</v>
+      <c r="AB17" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>154</v>
@@ -29774,7 +31097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>932101</v>
       </c>
@@ -29858,8 +31181,8 @@
       <c r="AA18" s="7">
         <v>100</v>
       </c>
-      <c r="AB18" s="23" t="s">
-        <v>145</v>
+      <c r="AB18" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>154</v>
@@ -29916,7 +31239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>943391</v>
       </c>
@@ -29952,8 +31275,8 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
-      <c r="AB19" s="23" t="s">
-        <v>148</v>
+      <c r="AB19" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>154</v>
@@ -30010,7 +31333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>103194</v>
       </c>
@@ -30094,8 +31417,8 @@
       <c r="AA20" s="7">
         <v>0</v>
       </c>
-      <c r="AB20" s="23" t="s">
-        <v>147</v>
+      <c r="AB20" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>154</v>
@@ -30152,7 +31475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>313895</v>
       </c>
@@ -30246,7 +31569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>807290</v>
       </c>
@@ -30330,8 +31653,8 @@
       <c r="AA22" s="7">
         <v>100</v>
       </c>
-      <c r="AB22" s="23" t="s">
-        <v>145</v>
+      <c r="AB22" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>154</v>
@@ -30388,7 +31711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>690179</v>
       </c>
@@ -30472,8 +31795,8 @@
       <c r="AA23" s="7">
         <v>33</v>
       </c>
-      <c r="AB23" s="23" t="s">
-        <v>146</v>
+      <c r="AB23" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>154</v>
@@ -30531,7 +31854,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AT29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT29">
     <sortCondition descending="1" ref="C2:C29"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30540,29 +31863,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.71875" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="14.71875" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -30594,7 +31917,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -30620,7 +31943,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -30643,7 +31966,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -30666,7 +31989,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -30689,7 +32012,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
@@ -30704,7 +32027,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -30725,7 +32048,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -30748,7 +32071,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -30769,7 +32092,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -30786,7 +32109,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -30809,7 +32132,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="98.4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -30837,7 +32160,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -30852,7 +32175,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -30875,7 +32198,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
@@ -30895,7 +32218,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -30915,7 +32238,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -30934,7 +32257,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -30956,7 +32279,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -30975,7 +32298,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -30995,7 +32318,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -31009,7 +32332,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -31027,7 +32350,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -31047,7 +32370,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -31070,7 +32393,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -31090,7 +32413,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>112</v>
       </c>
@@ -31110,7 +32433,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -31136,7 +32459,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -31159,7 +32482,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -31182,332 +32505,332 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J31" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J32" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J40" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J42" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J43" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J44" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="71" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J71" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="72" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J72" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="73" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J73" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="74" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J74" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="75" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J75" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="76" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J76" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="77" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J77" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="78" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J78" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="79" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J79" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="80" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J80" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="81" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J81" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="82" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J82" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="83" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J83" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="84" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J84" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="85" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J85" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="86" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J86" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="87" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J87" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="88" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J88" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="89" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J89" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="90" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J90" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="91" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J91" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="92" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J92" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="93" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J93" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="94" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J94" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="95" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J95" s="1" t="s">
         <v>196</v>
       </c>
@@ -31517,21 +32840,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="4" max="19" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="4" max="19" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -31590,7 +32913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>61046</v>
       </c>
@@ -31661,7 +32984,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>84924</v>
       </c>
@@ -31732,7 +33055,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>374328</v>
       </c>
@@ -31803,7 +33126,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>586798</v>
       </c>
@@ -31873,7 +33196,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>144707</v>
       </c>
@@ -31938,7 +33261,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>865260</v>
       </c>
@@ -32003,7 +33326,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>942575</v>
       </c>
@@ -32068,7 +33391,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>753307</v>
       </c>
@@ -32133,7 +33456,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>906861</v>
       </c>
@@ -32198,7 +33521,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>993807</v>
       </c>
@@ -32263,7 +33586,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>739187</v>
       </c>
@@ -32328,7 +33651,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>116420</v>
       </c>
@@ -32393,7 +33716,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>930512</v>
       </c>
@@ -32458,7 +33781,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>932101</v>
       </c>
@@ -32523,7 +33846,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>103194</v>
       </c>
@@ -32588,7 +33911,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>807290</v>
       </c>
@@ -32653,7 +33976,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>690179</v>
       </c>
@@ -32718,52 +34041,52 @@
       <c r="U18" s="1"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U19" s="1"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U20" s="1"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U21" s="1"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U22" s="1"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U23" s="1"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U24" s="1"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U25" s="1"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U26" s="1"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U27" s="1"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U28" s="1"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U29" s="1"/>
       <c r="V29" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S18">
     <sortCondition descending="1" ref="C2:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32773,20 +34096,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="A4" sqref="A4:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -32794,7 +34117,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -32802,7 +34125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -32810,7 +34133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -32818,7 +34141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -32826,7 +34149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -32834,7 +34157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -32842,7 +34165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -32850,7 +34173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -32858,7 +34181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -32866,7 +34189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -32874,7 +34197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -32882,7 +34205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -32890,7 +34213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -32898,7 +34221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -32906,7 +34229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -32921,20 +34244,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53AEE34-DEB1-41F7-80C4-2A797D65C8F8}">
+  <dimension ref="G2:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G2" s="23"/>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G7" s="23"/>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="23"/>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+      <c r="I9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>155</v>
       </c>
@@ -32942,7 +34409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -32950,88 +34417,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="9">
         <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -33041,41 +34432,73 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.27734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="B4" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>18</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -33085,49 +34508,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.71875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -33137,65 +34552,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B5" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="9">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -33205,65 +34604,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B4" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B5" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B7" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -33273,81 +34672,65 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B4" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="9">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
